--- a/data/epas.xlsx
+++ b/data/epas.xlsx
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG4" activeCellId="0" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>58</v>
